--- a/DocumentProcessing/Export Results.xlsx
+++ b/DocumentProcessing/Export Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/ahmed_loirdi_capgemini_com/Documents/Documents/UiPath/IDP_Payment Proof/DocumentProcessing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_62B6F63A6900695123F67F75BD0E2C41DB139095" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D9AC2BD-4E46-47B3-9675-A329C7523D12}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_62B6F63A6900695123F67F75BD0E2C41DB139095" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0080A150-D818-422B-94FC-390463CE0C7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -383,6 +383,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -418,6 +419,21 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
